--- a/docs/GARERI.Asg04.TimeChart.xlsx
+++ b/docs/GARERI.Asg04.TimeChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcgar\Documents\Coursework2022\Summer\CS372\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcgar\source\repos\cs372.gareri\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F216A6B-0F2D-4B74-B134-53C2101AF867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825A942-D266-488C-945B-FE6A6EA1A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0231567D-3562-4E41-810A-4666E8665883}"/>
+    <workbookView xWindow="6156" yWindow="1356" windowWidth="17280" windowHeight="8880" xr2:uid="{0231567D-3562-4E41-810A-4666E8665883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,16 +319,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.36993E-2</c:v>
+                  <c:v>1.04888E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32467000000000001</c:v>
+                  <c:v>1.0105999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8828399999999998</c:v>
+                  <c:v>7.6022999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.429</c:v>
+                  <c:v>115.51600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3762.06</c:v>
@@ -388,16 +388,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.36993E-2</c:v>
+                  <c:v>9.9127E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32467000000000001</c:v>
+                  <c:v>0.97249799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8828399999999998</c:v>
+                  <c:v>3.8354300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.429</c:v>
+                  <c:v>111.271</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3762.06</c:v>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>2.36993E-2</v>
+        <v>1.04888E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>2.36993E-2</v>
+        <v>9.9127E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1575,10 +1575,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>0.32467000000000001</v>
+        <v>1.0105999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>0.32467000000000001</v>
+        <v>0.97249799999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,10 +1586,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>7.8828399999999998</v>
+        <v>7.6022999999999996</v>
       </c>
       <c r="C4" s="2">
-        <v>7.8828399999999998</v>
+        <v>3.8354300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,10 +1597,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>116.429</v>
+        <v>115.51600000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>116.429</v>
+        <v>111.271</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/GARERI.Asg04.TimeChart.xlsx
+++ b/docs/GARERI.Asg04.TimeChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcgar\source\repos\cs372.gareri\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825A942-D266-488C-945B-FE6A6EA1A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D114D2-811C-489C-90ED-5635A30B63CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="1356" windowWidth="17280" windowHeight="8880" xr2:uid="{0231567D-3562-4E41-810A-4666E8665883}"/>
+    <workbookView xWindow="5760" yWindow="1356" windowWidth="17280" windowHeight="8880" xr2:uid="{0231567D-3562-4E41-810A-4666E8665883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,16 +154,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
+              <a:t>Time Data</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39560411198600182"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -196,48 +199,24 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of Disks:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
@@ -266,52 +245,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3811-4E23-9298-648F8A566F4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recursive time(in seconds):</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$8</c:f>
@@ -331,56 +265,60 @@
                   <c:v>115.51600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3762.06</c:v>
+                  <c:v>3430.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3811-4E23-9298-648F8A566F4F}"/>
+              <c16:uniqueId val="{00000000-6FC2-4F56-8B6F-3884D764CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iterate time(in seconds):</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$8</c:f>
@@ -400,15 +338,14 @@
                   <c:v>111.271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3762.06</c:v>
+                  <c:v>3497.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3811-4E23-9298-648F8A566F4F}"/>
+              <c16:uniqueId val="{00000001-6FC2-4F56-8B6F-3884D764CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -420,18 +357,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="671456688"/>
-        <c:axId val="856986232"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="611164864"/>
+        <c:axId val="611166176"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="671456688"/>
+        <c:axId val="611164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -468,7 +406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="856986232"/>
+        <c:crossAx val="611166176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -476,7 +414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="856986232"/>
+        <c:axId val="611166176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,49 +465,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671456688"/>
+        <c:crossAx val="611164864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -611,13 +510,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -694,7 +586,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1201,22 +1093,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2655F98-969B-FDC0-CF8D-7F641E6E6A5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94462AD-F4E8-1256-46F9-0B579101A55C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1429,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,10 +1500,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>3762.06</v>
+        <v>3430.85</v>
       </c>
       <c r="C6" s="2">
-        <v>3762.06</v>
+        <v>3497.74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
